--- a/AAII_Financials/Quarterly/RVI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RVI_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="92">
   <si>
     <t>RVI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,205 +665,230 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>50400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>55700</v>
+      </c>
+      <c r="F8" s="3">
         <v>60900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>60900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>61600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>67700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>69700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>79000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>76300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>322900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>84700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>81200</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>16900</v>
+      </c>
+      <c r="F9" s="3">
         <v>16600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>17500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>17900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>19800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>19400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>22200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>21900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>89400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>22300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>22100</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>33600</v>
+      </c>
+      <c r="E10" s="3">
+        <v>38800</v>
+      </c>
+      <c r="F10" s="3">
         <v>44300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>43400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>43700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>47900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>50300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>56800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>54400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>233500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>62400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>59100</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -880,8 +905,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -924,8 +951,14 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -968,96 +1001,114 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E14" s="3">
+        <v>43900</v>
+      </c>
+      <c r="F14" s="3">
         <v>-50800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>6200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>20800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>5900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>7500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>45500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>146500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>273000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>6100</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E15" s="3">
+        <v>19200</v>
+      </c>
+      <c r="F15" s="3">
         <v>17700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>18400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>19400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>20300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>22100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>24100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>26100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>118700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>30000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>30400</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1071,96 +1122,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>59100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>86100</v>
+      </c>
+      <c r="F17" s="3">
         <v>-10200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>49000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>64800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>53700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>56600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>99700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>201000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>512200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>64800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>60400</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-30400</v>
+      </c>
+      <c r="F18" s="3">
         <v>71100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>11900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-3200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>14000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>13100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-20700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-124700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-189300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>19900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>20800</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1177,228 +1242,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F20" s="3">
         <v>10400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>12900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>17400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-3000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-2000</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="F21" s="3">
         <v>99300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>43200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>33500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>31300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>35600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>3400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-98700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-72500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>49900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>51200</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E22" s="3">
+        <v>8500</v>
+      </c>
+      <c r="F22" s="3">
         <v>9400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>10800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>14000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>15200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>17100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>18100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>19400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>90300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>22500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>21600</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-39000</v>
+      </c>
+      <c r="F23" s="3">
         <v>72200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>13900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-4300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-3600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-38900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-144200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-281500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-2600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-800</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>100</v>
+      </c>
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>4100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>11300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>8900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1441,96 +1538,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-39100</v>
+      </c>
+      <c r="F26" s="3">
         <v>72300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>13600</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-4100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-3900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-42900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-144300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-292800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-11500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1000</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-39100</v>
+      </c>
+      <c r="F27" s="3">
         <v>72300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>13600</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>2900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>6000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-29800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-144300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-292500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-11400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1000</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1573,8 +1688,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1608,17 +1729,23 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>3</v>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1661,8 +1788,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1705,96 +1838,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-10400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-12900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-17400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>3000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>2000</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-39100</v>
+      </c>
+      <c r="F33" s="3">
         <v>72300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>13600</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>2900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>6000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-29800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-144300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-292500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-11400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1000</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1837,101 +1988,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-39100</v>
+      </c>
+      <c r="F35" s="3">
         <v>72300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>13600</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>2900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>6000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-29800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-144300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-292500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-11400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1000</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1948,8 +2117,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1966,38 +2137,40 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>92400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>71000</v>
+      </c>
+      <c r="F41" s="3">
         <v>71300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>58500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>37600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>44600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>28600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>22100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>4300</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2010,8 +2183,14 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2054,38 +2233,44 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>21400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>25200</v>
+      </c>
+      <c r="F43" s="3">
         <v>24200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>25400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>44500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>60800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>79900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>83000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>98200</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2098,8 +2283,14 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2142,8 +2333,14 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2186,8 +2383,14 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2230,19 +2433,25 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
         <v>100</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
+      <c r="E47" s="3">
+        <v>100</v>
+      </c>
+      <c r="F47" s="3">
+        <v>100</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -2256,11 +2465,11 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2274,38 +2483,44 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1220400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1389000</v>
+      </c>
+      <c r="F48" s="3">
         <v>1464600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1526700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1658000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1747000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1867900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1999900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2102200</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2318,38 +2533,44 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E49" s="3">
+        <v>17900</v>
+      </c>
+      <c r="F49" s="3">
         <v>19100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>20400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>22500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>31900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>40800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>54500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>62400</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2362,8 +2583,14 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2406,8 +2633,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2450,38 +2683,44 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>92800</v>
+      </c>
+      <c r="E52" s="3">
+        <v>123300</v>
+      </c>
+      <c r="F52" s="3">
         <v>106500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>98700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>80300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>76600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>110600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>76800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>61800</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2494,8 +2733,14 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2538,38 +2783,44 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1440700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1626700</v>
+      </c>
+      <c r="F54" s="3">
         <v>1686100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1729900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1843100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1962600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2133300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2241600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2334000</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2582,8 +2833,14 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2600,8 +2857,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2618,38 +2877,40 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>41800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>51000</v>
+      </c>
+      <c r="F57" s="3">
         <v>55500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>57200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>62300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>84800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>94700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>120400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>97100</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2662,8 +2923,14 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2706,32 +2973,38 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>42000</v>
+      </c>
+      <c r="F59" s="3">
         <v>19600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>36700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>37100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>58000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>36500</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2741,17 +3014,23 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
-      </c>
-      <c r="O59" s="3">
-        <v>0</v>
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2794,38 +3073,44 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>505800</v>
+      </c>
+      <c r="E61" s="3">
+        <v>655800</v>
+      </c>
+      <c r="F61" s="3">
         <v>654700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>752400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>873700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>967600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>1128800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1241800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1317700</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2838,8 +3123,14 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2882,8 +3173,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2926,8 +3223,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2970,8 +3273,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3014,38 +3323,44 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>547700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>748800</v>
+      </c>
+      <c r="F66" s="3">
         <v>729800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>846300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>973000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1110400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1259900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1362300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1414900</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3058,8 +3373,14 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3076,8 +3397,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3120,8 +3443,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3164,8 +3493,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3188,10 +3523,10 @@
         <v>190000</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>190000</v>
       </c>
       <c r="K70" s="3">
-        <v>0</v>
+        <v>190000</v>
       </c>
       <c r="L70" s="3">
         <v>0</v>
@@ -3208,8 +3543,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3252,38 +3593,44 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="F72" s="3">
         <v>71400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-14500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-15200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>6000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>689300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>919100</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3296,8 +3643,14 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3340,8 +3693,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3384,8 +3743,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3428,38 +3793,44 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>702900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>687900</v>
+      </c>
+      <c r="F76" s="3">
         <v>766200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>693700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>680200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>662300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>683400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>689300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>919100</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3472,8 +3843,14 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3516,101 +3893,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-39100</v>
+      </c>
+      <c r="F81" s="3">
         <v>72300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>13600</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>2900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>6000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-29800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-144300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-292500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-11400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1000</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3627,52 +4022,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E83" s="3">
+        <v>19200</v>
+      </c>
+      <c r="F83" s="3">
         <v>17700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>18400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>19400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>20300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>22100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>24100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>26100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>118700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>30000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>30400</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3715,8 +4118,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3759,8 +4168,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3803,8 +4218,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3847,8 +4268,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3891,52 +4318,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>23400</v>
+      </c>
+      <c r="F89" s="3">
         <v>29900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>30100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>11500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>21400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>22600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>26300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>2500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>96200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>20800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>37300</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3953,52 +4392,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="F91" s="3">
         <v>-15800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-23500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-25900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-23400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-21400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-13300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-7200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-21100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-5800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-4800</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4041,8 +4488,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4085,52 +4538,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>140700</v>
+      </c>
+      <c r="E94" s="3">
+        <v>23000</v>
+      </c>
+      <c r="F94" s="3">
         <v>89400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>137900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>93700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>123400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>131400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>107300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-7200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-9600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-5700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-4800</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4147,26 +4612,28 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-11000</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>-100</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-6700</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
@@ -4191,8 +4658,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4235,8 +4708,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4279,8 +4758,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4323,52 +4808,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-165600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-33600</v>
+      </c>
+      <c r="F100" s="3">
         <v>-100700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-125300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-107300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-165700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-117300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-89900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>48100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-89300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-28600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-22800</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4411,48 +4908,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>12800</v>
+      </c>
+      <c r="F102" s="3">
         <v>18600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>42700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-2100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-21000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>36800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>43600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>43400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-2700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-13500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>9600</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RVI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RVI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="92">
   <si>
     <t>RVI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,230 +665,243 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>39300</v>
+      </c>
+      <c r="E8" s="3">
         <v>50400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>55700</v>
-      </c>
-      <c r="F8" s="3">
-        <v>60900</v>
       </c>
       <c r="G8" s="3">
         <v>60900</v>
       </c>
       <c r="H8" s="3">
+        <v>60900</v>
+      </c>
+      <c r="I8" s="3">
         <v>61600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>67700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>69700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>79000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>76300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>322900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>84700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>81200</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E9" s="3">
         <v>16800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>16900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>16600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>17500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>17900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>19800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>19400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>22200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>21900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>89400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>22300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>22100</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E10" s="3">
         <v>33600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>38800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>44300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>43400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>43700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>47900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>50300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>56800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>54400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>233500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>62400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>59100</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -907,8 +920,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -957,8 +971,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1007,49 +1024,52 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E14" s="3">
         <v>19900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>43900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-50800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>6200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>20800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>5900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>7500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>45500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>146500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>273000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>6100</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>3</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>3</v>
@@ -1057,58 +1077,64 @@
       <c r="R14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E15" s="3">
         <v>16500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>19200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>17700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>18400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>19400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>20300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>22100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>24100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>26100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>118700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>30000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>30400</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1124,108 +1150,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>46100</v>
+      </c>
+      <c r="E17" s="3">
         <v>59100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>86100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>-10200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>49000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>64800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>53700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>56600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>99700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>201000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>512200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>64800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>60400</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-8700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-30400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>71100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>11900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>14000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>13100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-20700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-124700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-189300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>19900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>20800</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1244,49 +1277,50 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E20" s="3">
         <v>3000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>10400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>12900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>17400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-3000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-2000</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
+      <c r="P20" s="3">
+        <v>0</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
@@ -1294,208 +1328,223 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E21" s="3">
         <v>10800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-11400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>99300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>43200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>33500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>31300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>35600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-98700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-72500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>49900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>51200</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E22" s="3">
         <v>7300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>8500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>9400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>10800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>14000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>15200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>17100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>18100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>19400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>90300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>22500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>21600</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-13000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-39000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>72200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>13900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-38900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-144200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-281500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-800</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E24" s="3">
         <v>100</v>
       </c>
       <c r="F24" s="3">
+        <v>100</v>
+      </c>
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>11300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>8900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1544,108 +1593,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-13100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-39100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>72300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>13600</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-4100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-42900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-144300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-292800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-11500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1000</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-13100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-39100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>72300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>13600</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>2900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>6000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-29800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-144300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-292500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-11400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1000</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1694,8 +1752,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1735,8 +1796,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>3</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>3</v>
@@ -1744,8 +1805,11 @@
       <c r="R29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1794,8 +1858,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1844,49 +1911,52 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-10400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-12900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-17400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>3000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>2000</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
+      <c r="P32" s="3">
+        <v>0</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
@@ -1894,58 +1964,64 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-13100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-39100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>72300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>13600</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>2900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>6000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-29800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-144300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-292500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-11400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1000</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1994,113 +2070,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-13100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-39100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>72300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>13600</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>2900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>6000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-29800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-144300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-292500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-11400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1000</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2119,8 +2204,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2139,41 +2225,42 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>99200</v>
+      </c>
+      <c r="E41" s="3">
         <v>92400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>71000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>71300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>58500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>37600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>44600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>28600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>22100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4300</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2189,8 +2276,11 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2239,41 +2329,44 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>31900</v>
+      </c>
+      <c r="E43" s="3">
         <v>21400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>25200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>24200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>25400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>44500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>60800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>79900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>83000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>98200</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2289,8 +2382,11 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2339,8 +2435,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2389,8 +2488,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2439,13 +2541,16 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>100</v>
+      <c r="D47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E47" s="3">
         <v>100</v>
@@ -2453,8 +2558,8 @@
       <c r="F47" s="3">
         <v>100</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
+      <c r="G47" s="3">
+        <v>100</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -2471,8 +2576,8 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -2489,41 +2594,44 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1194300</v>
+      </c>
+      <c r="E48" s="3">
         <v>1220400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1389000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1464600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1526700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1658000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1747000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1867900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1999900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2102200</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2539,41 +2647,44 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E49" s="3">
         <v>13400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>17900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>19100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>20400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>22500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>31900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>40800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>54500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>62400</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2589,8 +2700,11 @@
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2639,8 +2753,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2689,41 +2806,44 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>101000</v>
+      </c>
+      <c r="E52" s="3">
         <v>92800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>123300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>106500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>98700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>80300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>76600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>110600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>76800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>61800</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2739,8 +2859,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2789,41 +2912,44 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1439300</v>
+      </c>
+      <c r="E54" s="3">
         <v>1440700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1626700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1686100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1729900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1843100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1962600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2133300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2241600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2334000</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2839,8 +2965,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2859,8 +2988,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2879,41 +3009,42 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>41300</v>
+      </c>
+      <c r="E57" s="3">
         <v>41800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>51000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>55500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>57200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>62300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>84800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>94700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>120400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>97100</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2929,8 +3060,11 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2979,35 +3113,38 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>300</v>
+      </c>
+      <c r="E59" s="3">
         <v>100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>42000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>19600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>36700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>37100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>58000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>36500</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3020,8 +3157,8 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
+      <c r="P59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
@@ -3029,8 +3166,11 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3079,41 +3219,44 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>506700</v>
+      </c>
+      <c r="E61" s="3">
         <v>505800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>655800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>654700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>752400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>873700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>967600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1128800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1241800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1317700</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3129,8 +3272,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3179,8 +3325,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3229,8 +3378,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3279,8 +3431,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3329,41 +3484,44 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>548300</v>
+      </c>
+      <c r="E66" s="3">
         <v>547700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>748800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>729800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>846300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>973000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1110400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1259900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1362300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1414900</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3379,8 +3537,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3399,8 +3560,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3449,8 +3611,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3499,8 +3664,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3529,7 +3697,7 @@
         <v>190000</v>
       </c>
       <c r="L70" s="3">
-        <v>0</v>
+        <v>190000</v>
       </c>
       <c r="M70" s="3">
         <v>0</v>
@@ -3549,8 +3717,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3599,41 +3770,44 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-19900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-6900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>71400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-14500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-15200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>6000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>689300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>919100</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3649,8 +3823,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3699,8 +3876,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3749,8 +3929,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3799,41 +3982,44 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>700900</v>
+      </c>
+      <c r="E76" s="3">
         <v>702900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>687900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>766200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>693700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>680200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>662300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>683400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>689300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>919100</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3849,8 +4035,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3899,113 +4088,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-13100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-39100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>72300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>13600</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>2900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>6000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-29800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-144300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-292500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-11400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1000</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4024,58 +4222,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E83" s="3">
         <v>16500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>19200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>17700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>18400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>19400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>20300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>22100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>24100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>26100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>118700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>30000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>30400</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4124,8 +4326,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4174,8 +4379,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4224,8 +4432,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4274,8 +4485,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4324,58 +4538,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E89" s="3">
         <v>15200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>23400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>29900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>30100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>11500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>21400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>22600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>26300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>96200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>20800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>37300</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4394,58 +4614,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-6200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-14700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-15800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-23500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-25900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-23400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-21400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-13300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-7200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-21100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-5800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4800</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4494,8 +4718,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4544,58 +4771,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E94" s="3">
         <v>140700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>23000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>89400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>137900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>93700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>123400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>131400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>107300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-7200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-9600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4800</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4614,29 +4847,30 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
         <v>-11000</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
         <v>-100</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-6700</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
@@ -4664,8 +4898,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4714,8 +4951,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4764,8 +5004,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4814,58 +5057,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>-165600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-33600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-100700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-125300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-107300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-165700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-117300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-89900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>48100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-89300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-28600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-22800</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4914,54 +5163,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-9700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>12800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>18600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>42700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-21000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>36800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>43600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>43400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-13500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>9600</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RVI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RVI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="92">
   <si>
     <t>RVI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,243 +665,256 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E8" s="3">
         <v>39300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>50400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>55700</v>
-      </c>
-      <c r="G8" s="3">
-        <v>60900</v>
       </c>
       <c r="H8" s="3">
         <v>60900</v>
       </c>
       <c r="I8" s="3">
+        <v>60900</v>
+      </c>
+      <c r="J8" s="3">
         <v>61600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>67700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>69700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>79000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>76300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>322900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>84700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>81200</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E9" s="3">
         <v>15100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>16800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>16900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>16600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>17500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>17900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>19800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>19400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>22200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>21900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>89400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>22300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>22100</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>25100</v>
+      </c>
+      <c r="E10" s="3">
         <v>24200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>33600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>38800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>44300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>43400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>43700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>47900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>50300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>56800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>54400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>233500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>62400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>59100</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -921,8 +934,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -974,8 +988,11 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1027,52 +1044,55 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>78200</v>
+      </c>
+      <c r="E14" s="3">
         <v>10900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>19900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>43900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-50800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>6200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>20800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>5900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>7500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>45500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>146500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>273000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>6100</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>3</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>3</v>
@@ -1080,61 +1100,67 @@
       <c r="S14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E15" s="3">
         <v>14200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>16500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>19200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>17700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>18400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>19400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>20300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>22100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>24100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>26100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>118700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>30000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>30400</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1151,114 +1177,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>112200</v>
+      </c>
+      <c r="E17" s="3">
         <v>46100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>59100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>86100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>-10200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>49000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>64800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>53700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>56600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>99700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>201000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>512200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>64800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>60400</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-72200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-6800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-8700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-30400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>71100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>11900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>14000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>13100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-20700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-124700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-189300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>19900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>20800</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1278,52 +1311,53 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E20" s="3">
         <v>11000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>10400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>12900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>17400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-3000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-2000</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
+      <c r="Q20" s="3">
+        <v>0</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
@@ -1331,220 +1365,235 @@
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-49900</v>
+      </c>
+      <c r="E21" s="3">
         <v>18400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>10800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-11400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>99300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>43200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>33500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>31300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>35600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-98700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-72500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>49900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>51200</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E22" s="3">
         <v>5700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>7300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>8500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>9400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>10800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>14000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>15200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>17100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>18100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>19400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>90300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>22500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>21600</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-68900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-13000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-39000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>72200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>13900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-38900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-144200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-281500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-800</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
         <v>500</v>
-      </c>
-      <c r="E24" s="3">
-        <v>100</v>
       </c>
       <c r="F24" s="3">
         <v>100</v>
       </c>
       <c r="G24" s="3">
+        <v>100</v>
+      </c>
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>11300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>8900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1596,114 +1645,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-69000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-13100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-39100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>72300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>13600</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-4100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-42900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-144300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-292800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-11500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-69000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-13100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-39100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>72300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>13600</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>2900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>6000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-29800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-144300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-292500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-11400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1755,8 +1813,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1799,8 +1860,8 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>3</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>3</v>
@@ -1808,8 +1869,11 @@
       <c r="S29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1861,8 +1925,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1914,52 +1981,55 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-11000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-10400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-12900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-17400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>3000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>2000</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
+      <c r="Q32" s="3">
+        <v>0</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
@@ -1967,61 +2037,67 @@
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-69000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-13100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-39100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>72300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>13600</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>2900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>6000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-29800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-144300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-292500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-11400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2073,119 +2149,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-69000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-13100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-39100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>72300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>13600</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>2900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>6000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-29800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-144300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-292500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-11400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2205,8 +2290,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2226,44 +2312,45 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>115300</v>
+      </c>
+      <c r="E41" s="3">
         <v>99200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>92400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>71000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>71300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>58500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>37600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>44600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>28600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>22100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4300</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2279,8 +2366,11 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2332,44 +2422,47 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E43" s="3">
         <v>31900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>21400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>25200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>24200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>25400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>44500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>60800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>79900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>83000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>98200</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2385,8 +2478,11 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2438,8 +2534,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2491,8 +2590,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2544,16 +2646,19 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="3">
-        <v>100</v>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F47" s="3">
         <v>100</v>
@@ -2561,8 +2666,8 @@
       <c r="G47" s="3">
         <v>100</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
+      <c r="H47" s="3">
+        <v>100</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -2579,8 +2684,8 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -2597,44 +2702,47 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1036000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1194300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1220400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1389000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1464600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1526700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1658000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1747000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1867900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1999900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2102200</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2650,44 +2758,47 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E49" s="3">
         <v>12500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>13400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>17900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>19100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>20400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>22500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>31900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>40800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>54500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>62400</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2703,8 +2814,11 @@
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2756,8 +2870,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2809,44 +2926,47 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>148400</v>
+      </c>
+      <c r="E52" s="3">
         <v>101000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>92800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>123300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>106500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>98700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>80300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>76600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>110600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>76800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>61800</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2862,8 +2982,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2915,44 +3038,47 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1338900</v>
+      </c>
+      <c r="E54" s="3">
         <v>1439300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1440700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1626700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1686100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1729900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1843100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1962600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2133300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2241600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2334000</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2968,8 +3094,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2989,8 +3118,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3010,44 +3140,45 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>38700</v>
+      </c>
+      <c r="E57" s="3">
         <v>41300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>41800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>51000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>55500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>57200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>62300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>84800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>94700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>120400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>97100</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3063,8 +3194,11 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3116,38 +3250,41 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>800</v>
+      </c>
+      <c r="E59" s="3">
         <v>300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>42000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>19600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>36700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>37100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>58000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>36500</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3160,8 +3297,8 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
@@ -3169,8 +3306,11 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3222,44 +3362,47 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>477100</v>
+      </c>
+      <c r="E61" s="3">
         <v>506700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>505800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>655800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>654700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>752400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>873700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>967600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1128800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1241800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1317700</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3275,8 +3418,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3328,8 +3474,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3381,8 +3530,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3434,8 +3586,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3487,44 +3642,47 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>516500</v>
+      </c>
+      <c r="E66" s="3">
         <v>548300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>547700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>748800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>729800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>846300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>973000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1110400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1259900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1362300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1414900</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3540,8 +3698,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3561,8 +3722,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3614,8 +3776,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3667,8 +3832,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3700,7 +3868,7 @@
         <v>190000</v>
       </c>
       <c r="M70" s="3">
-        <v>0</v>
+        <v>190000</v>
       </c>
       <c r="N70" s="3">
         <v>0</v>
@@ -3720,8 +3888,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3773,44 +3944,47 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-90900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-21900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-19900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-6900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>71400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-14500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-15200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>689300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>919100</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3826,8 +4000,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3879,8 +4056,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3932,8 +4112,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3985,44 +4168,47 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>632400</v>
+      </c>
+      <c r="E76" s="3">
         <v>700900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>702900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>687900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>766200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>693700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>680200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>662300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>683400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>689300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>919100</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4038,8 +4224,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4091,119 +4280,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-69000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-13100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-39100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>72300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>13600</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>2900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>6000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-29800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-144300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-292500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-11400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4223,61 +4421,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E83" s="3">
         <v>14200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>16500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>19200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>17700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>18400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>19400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>20300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>22100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>24100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>26100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>118700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>30000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>30400</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4329,8 +4531,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4382,8 +4587,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4435,8 +4643,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4488,8 +4699,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4541,61 +4755,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>19800</v>
+      </c>
+      <c r="E89" s="3">
         <v>5000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>15200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>23400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>29900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>30100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>11500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>21400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>22600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>26300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>96200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>20800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>37300</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4615,61 +4835,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-6900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-6200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-14700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-15800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-23500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-25900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-23400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-21400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-13300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-7200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-21100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-5800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4721,8 +4945,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4774,61 +5001,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>74400</v>
+      </c>
+      <c r="E94" s="3">
         <v>13700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>140700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>23000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>89400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>137900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>93700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>123400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>131400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>107300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-7200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-9600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4848,8 +5081,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4857,23 +5091,23 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-11000</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-100</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-6700</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
@@ -4901,8 +5135,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4954,8 +5191,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5007,8 +5247,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5060,61 +5303,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-30800</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-165600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-33600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-100700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-125300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-107300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-165700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-117300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-89900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>48100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-89300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-28600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-22800</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5166,57 +5415,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>63500</v>
+      </c>
+      <c r="E102" s="3">
         <v>18700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-9700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>12800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>18600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>42700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-21000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>36800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>43600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>43400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-13500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>9600</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RVI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RVI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="92">
   <si>
     <t>RVI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,256 +665,268 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>40100</v>
+      </c>
+      <c r="E8" s="3">
         <v>40000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>39300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>50400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>55700</v>
-      </c>
-      <c r="H8" s="3">
-        <v>60900</v>
       </c>
       <c r="I8" s="3">
         <v>60900</v>
       </c>
       <c r="J8" s="3">
+        <v>60900</v>
+      </c>
+      <c r="K8" s="3">
         <v>61600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>67700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>69700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>79000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>76300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>322900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>84700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>81200</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E9" s="3">
         <v>14900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>15100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>16800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>16900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>16600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>17500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>17900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>19800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>19400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>22200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>21900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>89400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>22300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>22100</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>25300</v>
+      </c>
+      <c r="E10" s="3">
         <v>25100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>24200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>33600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>38800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>44300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>43400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>43700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>47900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>50300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>56800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>54400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>233500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>62400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>59100</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -935,8 +947,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -991,8 +1004,11 @@
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1047,55 +1063,58 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E14" s="3">
         <v>78200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>10900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>19900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>43900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-50800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>6200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>20800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>5900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>7500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>45500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>146500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>273000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>6100</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>3</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>3</v>
@@ -1103,64 +1122,70 @@
       <c r="T14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E15" s="3">
         <v>13800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>14200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>16500</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>19200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>17700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>18400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>19400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>20300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>22100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>24100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>26100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>118700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>30000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>30400</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1178,120 +1203,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E17" s="3">
         <v>112200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>46100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>59100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>86100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>-10200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>49000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>64800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>53700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>56600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>99700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>201000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>512200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>64800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>60400</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-72200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-6800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-8700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-30400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>71100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>11900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>14000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>13100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-20700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-124700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-189300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>19900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>20800</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1312,55 +1344,56 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>700</v>
+      </c>
+      <c r="E20" s="3">
         <v>8400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>11000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>10400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>12900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>17400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>400</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-2000</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
+      <c r="R20" s="3">
+        <v>0</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
@@ -1368,232 +1401,247 @@
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-49900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>18400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>10800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-11400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>99300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>43200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>33500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>31300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>35600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-98700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-72500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>49900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>51200</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E22" s="3">
         <v>5200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>5700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>7300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>8500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>9400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>10800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>14000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>15200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>17100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>18100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>19400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>90300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>22500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>21600</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-68900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-13000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-39000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>72200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>13900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-38900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-144200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-281500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-800</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>700</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>500</v>
-      </c>
-      <c r="F24" s="3">
-        <v>100</v>
       </c>
       <c r="G24" s="3">
         <v>100</v>
       </c>
       <c r="H24" s="3">
+        <v>100</v>
+      </c>
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>4100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>11300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>8900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1648,120 +1696,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-69000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-13100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-39100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>72300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>13600</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>-4100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-42900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-144300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-292800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-11500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1000</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-69000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-13100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-39100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>72300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>13600</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>2900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>6000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-29800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-144300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-292500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-11400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1000</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1816,8 +1873,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1863,8 +1923,8 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>3</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>3</v>
@@ -1872,8 +1932,11 @@
       <c r="T29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1928,8 +1991,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1984,55 +2050,58 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-8400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-11000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-10400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-12900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-17400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-400</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>2000</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
+      <c r="R32" s="3">
+        <v>0</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
@@ -2040,64 +2109,70 @@
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-69000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-13100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-39100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>72300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>13600</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>2900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>6000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-29800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-144300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-292500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-11400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1000</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2152,125 +2227,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-69000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-13100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-39100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>72300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>13600</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>2900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>6000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-29800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-144300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-292500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-11400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1000</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2291,8 +2375,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2313,47 +2398,48 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>56800</v>
+      </c>
+      <c r="E41" s="3">
         <v>115300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>99200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>92400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>71000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>71300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>58500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>37600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>44600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>28600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>22100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4300</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2369,8 +2455,11 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2425,47 +2514,50 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>28300</v>
+      </c>
+      <c r="E43" s="3">
         <v>30500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>31900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>21400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>25200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>24200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>25400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>44500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>60800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>79900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>83000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>98200</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2481,8 +2573,11 @@
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2537,8 +2632,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2593,8 +2691,11 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2649,8 +2750,11 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2660,8 +2764,8 @@
       <c r="E47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F47" s="3">
-        <v>100</v>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G47" s="3">
         <v>100</v>
@@ -2669,8 +2773,8 @@
       <c r="H47" s="3">
         <v>100</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
+      <c r="I47" s="3">
+        <v>100</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -2687,8 +2791,8 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -2705,47 +2809,50 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>973300</v>
+      </c>
+      <c r="E48" s="3">
         <v>1036000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1194300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1220400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1389000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1464600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1526700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1658000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1747000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1867900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1999900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2102200</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2761,47 +2868,50 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E49" s="3">
         <v>8500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>12500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>13400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>17900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>19100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>20400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>22500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>31900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>40800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>54500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>62400</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2817,8 +2927,11 @@
       <c r="T49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2873,8 +2986,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2929,47 +3045,50 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>129300</v>
+      </c>
+      <c r="E52" s="3">
         <v>148400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>101000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>92800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>123300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>106500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>98700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>80300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>76600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>110600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>76800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>61800</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2985,8 +3104,11 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3041,47 +3163,50 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1195900</v>
+      </c>
+      <c r="E54" s="3">
         <v>1338900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1439300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1440700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1626700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1686100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1729900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1843100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1962600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2133300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2241600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2334000</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3097,8 +3222,11 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3119,8 +3247,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3141,47 +3270,48 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E57" s="3">
         <v>38700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>41300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>41800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>51000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>55500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>57200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>62300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>84800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>94700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>120400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>97100</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3197,8 +3327,11 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3253,41 +3386,44 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>25600</v>
+      </c>
+      <c r="E59" s="3">
         <v>800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>42000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>19600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>36700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>37100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>58000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>36500</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3300,8 +3436,8 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R59" s="3">
-        <v>0</v>
+      <c r="R59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S59" s="3">
         <v>0</v>
@@ -3309,8 +3445,11 @@
       <c r="T59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3365,47 +3504,50 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>344500</v>
+      </c>
+      <c r="E61" s="3">
         <v>477100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>506700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>505800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>655800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>654700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>752400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>873700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>967600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1128800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1241800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1317700</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3421,8 +3563,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3477,8 +3622,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3533,8 +3681,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3589,8 +3740,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3645,47 +3799,50 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>406100</v>
+      </c>
+      <c r="E66" s="3">
         <v>516500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>548300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>547700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>748800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>729800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>846300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>973000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1110400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1259900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1362300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1414900</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3701,8 +3858,11 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3723,8 +3883,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3779,8 +3940,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3835,8 +3999,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3871,7 +4038,7 @@
         <v>190000</v>
       </c>
       <c r="N70" s="3">
-        <v>0</v>
+        <v>190000</v>
       </c>
       <c r="O70" s="3">
         <v>0</v>
@@ -3891,8 +4058,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3947,47 +4117,50 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-123400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-90900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-21900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-19900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-6900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>71400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-14500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-15200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>689300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>919100</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4003,8 +4176,11 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4059,8 +4235,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4115,8 +4294,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4171,47 +4353,50 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>599800</v>
+      </c>
+      <c r="E76" s="3">
         <v>632400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>700900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>702900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>687900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>766200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>693700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>680200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>662300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>683400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>689300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>919100</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4227,8 +4412,11 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4283,125 +4471,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-69000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-13100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-39100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>72300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>13600</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>2900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>6000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-29800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-144300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-292500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-11400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1000</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4422,64 +4619,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E83" s="3">
         <v>13800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>14200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>16500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>19200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>17700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>18400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>19400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>20300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>22100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>24100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>26100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>118700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>30000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>30400</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4534,8 +4735,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4590,8 +4794,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4646,8 +4853,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4702,8 +4912,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4758,64 +4971,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E89" s="3">
         <v>19800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>5000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>15200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>23400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>29900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>30100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>11500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>21400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>22600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>26300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>96200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>20800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>37300</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4836,64 +5055,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-6900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-6200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-14700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-15800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-23500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-25900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-23400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-21400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-13300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-7200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-21100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4800</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4948,8 +5171,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5004,64 +5230,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>40100</v>
+      </c>
+      <c r="E94" s="3">
         <v>74400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>13700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>140700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>23000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>89400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>137900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>93700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>123400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>131400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>107300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-7200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-9600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-4800</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5082,8 +5314,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5094,23 +5327,23 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>-11000</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-6700</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -5138,8 +5371,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5194,8 +5430,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5250,8 +5489,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5306,64 +5548,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-134700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-30800</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-165600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-33600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-100700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-125300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-107300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-165700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-117300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-89900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>48100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-89300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-28600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-22800</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5418,60 +5666,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-83000</v>
+      </c>
+      <c r="E102" s="3">
         <v>63500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>18700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-9700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>12800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>18600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>42700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-21000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>36800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>43600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>43400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-13500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>9600</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RVI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RVI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="92">
   <si>
     <t>RVI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,268 +665,281 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>41500</v>
+      </c>
+      <c r="E8" s="3">
         <v>40100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>40000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>39300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>50400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>55700</v>
-      </c>
-      <c r="I8" s="3">
-        <v>60900</v>
       </c>
       <c r="J8" s="3">
         <v>60900</v>
       </c>
       <c r="K8" s="3">
+        <v>60900</v>
+      </c>
+      <c r="L8" s="3">
         <v>61600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>67700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>69700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>79000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>76300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>322900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>84700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>81200</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E9" s="3">
         <v>14800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>14900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>15100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>16800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>16900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>16600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>17500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>17900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>19800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>19400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>22200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>21900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>89400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>22300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>22100</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>27600</v>
+      </c>
+      <c r="E10" s="3">
         <v>25300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>25100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>24200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>33600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>38800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>44300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>43400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>43700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>47900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>50300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>56800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>54400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>233500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>62400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>59100</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -948,8 +961,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1007,8 +1021,11 @@
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1066,58 +1083,61 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E14" s="3">
         <v>12400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>78200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>10900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>19900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>43900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-50800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>6200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>20800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>5900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>7500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>45500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>146500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>273000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>6100</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>3</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>3</v>
@@ -1125,67 +1145,73 @@
       <c r="U14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E15" s="3">
         <v>12600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>13800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>14200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>16500</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>19200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>17700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>18400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>19400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>20300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>22100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>24100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>26100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>118700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>30000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>30400</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1204,126 +1230,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>34300</v>
+      </c>
+      <c r="E17" s="3">
         <v>45000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>112200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>46100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>59100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>86100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>-10200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>49000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>64800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>53700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>56600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>99700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>201000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>512200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>64800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>60400</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-4900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-72200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-6800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-8700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-30400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>71100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>11900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>14000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>13100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-20700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-124700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-189300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>19900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>20800</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1345,58 +1378,59 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
         <v>700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>8400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>11000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>10400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>12900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>17400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>400</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
+      <c r="S20" s="3">
+        <v>0</v>
       </c>
       <c r="T20" s="3" t="s">
         <v>3</v>
@@ -1404,244 +1438,259 @@
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>20700</v>
+      </c>
+      <c r="E21" s="3">
         <v>8400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-49900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>18400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>10800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-11400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>99300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>43200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>33500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>31300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>35600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-98700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-72500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>49900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>51200</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E22" s="3">
         <v>4600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>5200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>5700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>7300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>8500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>9400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>10800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>14000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>15200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>17100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>18100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>19400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>90300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>22500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>21600</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-8800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-68900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-13000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-39000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>72200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>13900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-38900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-144200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-281500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-800</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
         <v>700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>500</v>
-      </c>
-      <c r="G24" s="3">
-        <v>100</v>
       </c>
       <c r="H24" s="3">
         <v>100</v>
       </c>
       <c r="I24" s="3">
+        <v>100</v>
+      </c>
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>4100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>11300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>8900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>100</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1699,126 +1748,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-9500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-69000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-13100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-39100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>72300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>13600</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-4100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-42900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-144300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-292800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-11500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1000</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-9500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-69000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-13100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-39100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>72300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>13600</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>2900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>6000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-29800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-144300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-292500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-11400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1000</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1876,8 +1934,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1926,8 +1987,8 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>3</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>3</v>
@@ -1935,8 +1996,11 @@
       <c r="U29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1994,8 +2058,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2053,58 +2120,61 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-8400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-11000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-10400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-12900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-17400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-400</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>2000</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
+      <c r="S32" s="3">
+        <v>0</v>
       </c>
       <c r="T32" s="3" t="s">
         <v>3</v>
@@ -2112,67 +2182,73 @@
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-9500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-69000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-13100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-39100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>72300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>13600</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>2900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>6000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-29800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-144300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-292500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-11400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1000</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2230,131 +2306,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-9500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-69000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-13100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-39100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>72300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>13600</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>2900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>6000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-29800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-144300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-292500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-11400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1000</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2376,8 +2461,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2399,50 +2485,51 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>72700</v>
+      </c>
+      <c r="E41" s="3">
         <v>56800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>115300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>99200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>92400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>71000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>71300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>58500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>37600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>44600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>28600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>22100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4300</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2458,8 +2545,11 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2517,50 +2607,53 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>25100</v>
+      </c>
+      <c r="E43" s="3">
         <v>28300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>30500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>31900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>21400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>25200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>24200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>25400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>44500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>60800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>79900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>83000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>98200</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2576,8 +2669,11 @@
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2635,8 +2731,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2694,8 +2793,11 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2753,8 +2855,11 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2767,8 +2872,8 @@
       <c r="F47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G47" s="3">
-        <v>100</v>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H47" s="3">
         <v>100</v>
@@ -2776,8 +2881,8 @@
       <c r="I47" s="3">
         <v>100</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
+      <c r="J47" s="3">
+        <v>100</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
@@ -2794,8 +2899,8 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="P47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
@@ -2812,50 +2917,53 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>960200</v>
+      </c>
+      <c r="E48" s="3">
         <v>973300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1036000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1194300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1220400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1389000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1464600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1526700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1658000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1747000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1867900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1999900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2102200</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2871,50 +2979,53 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E49" s="3">
         <v>7900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>8500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>12500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>13400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>17900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>19100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>20400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>22500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>31900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>40800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>54500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>62400</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2930,8 +3041,11 @@
       <c r="U49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2989,8 +3103,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3048,50 +3165,53 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>74900</v>
+      </c>
+      <c r="E52" s="3">
         <v>129300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>148400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>101000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>92800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>123300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>106500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>98700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>80300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>76600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>110600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>76800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>61800</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3107,8 +3227,11 @@
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3166,50 +3289,53 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1140300</v>
+      </c>
+      <c r="E54" s="3">
         <v>1195900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1338900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1439300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1440700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1626700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1686100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1729900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1843100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1962600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2133300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2241600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2334000</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3225,8 +3351,11 @@
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3248,8 +3377,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3271,50 +3401,51 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>34200</v>
+      </c>
+      <c r="E57" s="3">
         <v>36000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>38700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>41300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>41800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>51000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>55500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>57200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>62300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>84800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>94700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>120400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>97100</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3330,8 +3461,11 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3389,44 +3523,47 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
         <v>25600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>42000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>19600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>36700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>37100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>58000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>36500</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3439,8 +3576,8 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S59" s="3">
-        <v>0</v>
+      <c r="S59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T59" s="3">
         <v>0</v>
@@ -3448,8 +3585,11 @@
       <c r="U59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3507,50 +3647,53 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>294100</v>
+      </c>
+      <c r="E61" s="3">
         <v>344500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>477100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>506700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>505800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>655800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>654700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>752400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>873700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>967600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1128800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1241800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1317700</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3566,8 +3709,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3625,8 +3771,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3684,8 +3833,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3743,8 +3895,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3802,50 +3957,53 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>328300</v>
+      </c>
+      <c r="E66" s="3">
         <v>406100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>516500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>548300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>547700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>748800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>729800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>846300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>973000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1110400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1259900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1362300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1414900</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3861,8 +4019,11 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3884,8 +4045,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3943,8 +4105,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4002,8 +4167,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4041,7 +4209,7 @@
         <v>190000</v>
       </c>
       <c r="O70" s="3">
-        <v>0</v>
+        <v>190000</v>
       </c>
       <c r="P70" s="3">
         <v>0</v>
@@ -4061,8 +4229,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4120,50 +4291,53 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-120200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-123400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-90900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-21900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-19900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-6900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>71400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-14500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-15200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>689300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>919100</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4179,8 +4353,11 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4238,8 +4415,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4297,8 +4477,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4356,50 +4539,53 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>622000</v>
+      </c>
+      <c r="E76" s="3">
         <v>599800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>632400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>700900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>702900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>687900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>766200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>693700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>680200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>662300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>683400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>689300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>919100</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4415,8 +4601,11 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4474,131 +4663,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-9500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-69000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-13100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-39100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>72300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>13600</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>2900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>6000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-29800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-144300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-292500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-11400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1000</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4620,67 +4818,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E83" s="3">
         <v>12600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>13800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>14200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>16500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>19200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>17700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>18400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>19400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>20300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>22100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>24100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>26100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>118700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>30000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>30400</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4738,8 +4940,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4797,8 +5002,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4856,8 +5064,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4915,8 +5126,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4974,67 +5188,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E89" s="3">
         <v>11600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>19800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>5000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>15200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>23400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>29900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>30100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>11500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>21400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>22600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>26300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>96200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>20800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>37300</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5056,67 +5276,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-6900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-6200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-14700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-15800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-23500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-25900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-23400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-21400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-13300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-7200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-21100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-5800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4800</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5174,8 +5398,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5233,67 +5460,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E94" s="3">
         <v>40100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>74400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>13700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>140700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>23000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>89400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>137900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>93700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>123400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>131400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>107300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-7200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-9600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-5700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-4800</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5315,13 +5548,14 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-4400</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -5330,23 +5564,23 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
         <v>-11000</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-6700</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -5374,8 +5608,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5433,8 +5670,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5492,8 +5732,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5551,67 +5794,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-55600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-134700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-30800</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-165600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-33600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-100700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-125300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-107300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-165700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-117300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-89900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>48100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-89300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-28600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-22800</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5669,63 +5918,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-36500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-83000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>63500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>18700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-9700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>12800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>18600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>42700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-21000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>36800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>43600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>43400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-13500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>9600</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RVI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RVI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="92">
   <si>
     <t>RVI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,281 +665,294 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="V7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>41900</v>
+      </c>
+      <c r="E8" s="3">
         <v>41500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>40100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>40000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>39300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>50400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>55700</v>
-      </c>
-      <c r="J8" s="3">
-        <v>60900</v>
       </c>
       <c r="K8" s="3">
         <v>60900</v>
       </c>
       <c r="L8" s="3">
+        <v>60900</v>
+      </c>
+      <c r="M8" s="3">
         <v>61600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>67700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>69700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>79000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>76300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>322900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>84700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>81200</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E9" s="3">
         <v>13900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>14800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>14900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>15100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>16800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>16900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>16600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>17500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>17900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>19800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>19400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>22200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>21900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>89400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>22300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>22100</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E10" s="3">
         <v>27600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>25300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>25100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>24200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>33600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>38800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>44300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>43400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>43700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>47900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>50300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>56800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>54400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>233500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>62400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>59100</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -962,8 +975,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1024,8 +1038,11 @@
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1086,61 +1103,64 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>80200</v>
+      </c>
+      <c r="E14" s="3">
         <v>2100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>12400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>78200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>10900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>19900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>43900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-50800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>6200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>20800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>5900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>7500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>45500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>146500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>273000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>6100</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>3</v>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>3</v>
@@ -1148,70 +1168,76 @@
       <c r="V14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E15" s="3">
         <v>13400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>12600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>13800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>14200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>16500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>19200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>17700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>18400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>19400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>20300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>22100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>24100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>26100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>118700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>30000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>30400</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1231,132 +1257,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>109600</v>
+      </c>
+      <c r="E17" s="3">
         <v>34300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>45000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>112200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>46100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>59100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>86100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>-10200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>49000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>64800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>53700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>56600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>99700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>201000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>512200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>64800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>60400</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-67700</v>
+      </c>
+      <c r="E18" s="3">
         <v>7200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-4900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-72200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-6800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-8700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-30400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>71100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>11900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>14000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>13100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-20700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-124700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-189300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>19900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>20800</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1379,61 +1412,62 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>8400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>11000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>3000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>10400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>12900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>17400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>400</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-2000</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
+      <c r="T20" s="3">
+        <v>0</v>
       </c>
       <c r="U20" s="3" t="s">
         <v>3</v>
@@ -1441,194 +1475,206 @@
       <c r="V20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-54900</v>
+      </c>
+      <c r="E21" s="3">
         <v>20700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>8400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-49900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>18400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>10800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-11400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>99300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>43200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>33500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>31300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>35600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-98700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-72500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>49900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>51200</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E22" s="3">
         <v>4000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>4600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>5200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>5700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>7300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>8500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>9400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>10800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>14000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>15200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>17100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>18100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>19400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>90300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>22500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>21600</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-69500</v>
+      </c>
+      <c r="E23" s="3">
         <v>3300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-8800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-68900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-13000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-39000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>72200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>13900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-38900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-144200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-281500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-800</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1636,61 +1682,64 @@
         <v>100</v>
       </c>
       <c r="E24" s="3">
+        <v>100</v>
+      </c>
+      <c r="F24" s="3">
         <v>700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>500</v>
-      </c>
-      <c r="H24" s="3">
-        <v>100</v>
       </c>
       <c r="I24" s="3">
         <v>100</v>
       </c>
       <c r="J24" s="3">
+        <v>100</v>
+      </c>
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>4100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>11300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>8900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>100</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1751,132 +1800,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-69600</v>
+      </c>
+      <c r="E26" s="3">
         <v>3200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-9500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-69000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-13100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-39100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>72300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>13600</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-4100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-42900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-144300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-292800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-11500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1000</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-69600</v>
+      </c>
+      <c r="E27" s="3">
         <v>3200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-9500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-69000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-13100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-39100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>72300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>13600</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>2900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>6000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-29800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-144300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-292500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-11400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1000</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1937,8 +1995,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1990,8 +2051,8 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>3</v>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>3</v>
@@ -1999,8 +2060,11 @@
       <c r="V29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2061,8 +2125,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2123,61 +2190,64 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-8400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-11000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-3000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-10400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-12900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-17400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-400</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>2000</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
+      <c r="T32" s="3">
+        <v>0</v>
       </c>
       <c r="U32" s="3" t="s">
         <v>3</v>
@@ -2185,70 +2255,76 @@
       <c r="V32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-69600</v>
+      </c>
+      <c r="E33" s="3">
         <v>3200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-9500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-69000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-13100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-39100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>72300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>13600</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>2900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>6000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-29800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-144300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-292500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-11400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1000</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2309,137 +2385,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-69600</v>
+      </c>
+      <c r="E35" s="3">
         <v>3200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-9500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-69000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-13100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-39100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>72300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>13600</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>2900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>6000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-29800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-144300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-292500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-11400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1000</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="V38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2462,8 +2547,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2486,53 +2572,54 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>67200</v>
+      </c>
+      <c r="E41" s="3">
         <v>72700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>56800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>115300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>99200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>92400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>71000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>71300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>58500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>37600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>44600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>28600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>22100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4300</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2548,8 +2635,11 @@
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2610,53 +2700,56 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E43" s="3">
         <v>25100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>28300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>30500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>31900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>21400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>25200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>24200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>25400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>44500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>60800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>79900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>83000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>98200</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2672,8 +2765,11 @@
       <c r="V43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2734,8 +2830,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2796,8 +2895,11 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2858,8 +2960,11 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2875,8 +2980,8 @@
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H47" s="3">
-        <v>100</v>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I47" s="3">
         <v>100</v>
@@ -2884,8 +2989,8 @@
       <c r="J47" s="3">
         <v>100</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
+      <c r="K47" s="3">
+        <v>100</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
@@ -2902,8 +3007,8 @@
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
@@ -2920,53 +3025,56 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>820200</v>
+      </c>
+      <c r="E48" s="3">
         <v>960200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>973300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1036000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1194300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1220400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1389000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1464600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1526700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1658000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1747000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1867900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1999900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2102200</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2982,53 +3090,56 @@
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E49" s="3">
         <v>7100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>7900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>8500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>12500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>13400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>17900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>19100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>20400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>22500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>31900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>40800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>54500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>62400</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3044,8 +3155,11 @@
       <c r="V49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3106,8 +3220,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3168,53 +3285,56 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>66600</v>
+      </c>
+      <c r="E52" s="3">
         <v>74900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>129300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>148400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>101000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>92800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>123300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>106500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>98700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>80300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>76600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>110600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>76800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>61800</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3230,8 +3350,11 @@
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3292,53 +3415,56 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>980500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1140300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1195900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1338900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1439300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1440700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1626700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1686100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1729900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1843100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1962600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2133300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2241600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2334000</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3354,8 +3480,11 @@
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3378,8 +3507,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3402,53 +3532,54 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>30400</v>
+      </c>
+      <c r="E57" s="3">
         <v>34200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>36000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>38700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>41300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>41800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>51000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>55500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>57200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>62300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>84800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>94700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>120400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>97100</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3464,8 +3595,11 @@
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3526,8 +3660,11 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3535,38 +3672,38 @@
         <v>0</v>
       </c>
       <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
         <v>25600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>42000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>19600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>36700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>37100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>58000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>36500</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3579,8 +3716,8 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T59" s="3">
-        <v>0</v>
+      <c r="T59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U59" s="3">
         <v>0</v>
@@ -3588,8 +3725,11 @@
       <c r="V59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3650,53 +3790,56 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>207200</v>
+      </c>
+      <c r="E61" s="3">
         <v>294100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>344500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>477100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>506700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>505800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>655800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>654700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>752400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>873700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>967600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1128800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1241800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1317700</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -3712,8 +3855,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3774,8 +3920,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3836,8 +3985,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3898,8 +4050,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3960,53 +4115,56 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>237700</v>
+      </c>
+      <c r="E66" s="3">
         <v>328300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>406100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>516500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>548300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>547700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>748800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>729800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>846300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>973000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1110400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1259900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1362300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1414900</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4022,8 +4180,11 @@
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4046,8 +4207,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4108,8 +4270,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4170,8 +4335,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4212,7 +4380,7 @@
         <v>190000</v>
       </c>
       <c r="P70" s="3">
-        <v>0</v>
+        <v>190000</v>
       </c>
       <c r="Q70" s="3">
         <v>0</v>
@@ -4232,8 +4400,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4294,53 +4465,56 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-189800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-120200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-123400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-90900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-21900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-19900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-6900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>71400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-14500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-15200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>6000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>689300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>919100</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4356,8 +4530,11 @@
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4418,8 +4595,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4480,8 +4660,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4542,53 +4725,56 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>552800</v>
+      </c>
+      <c r="E76" s="3">
         <v>622000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>599800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>632400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>700900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>702900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>687900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>766200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>693700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>680200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>662300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>683400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>689300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>919100</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4604,8 +4790,11 @@
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4666,137 +4855,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="V80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-69600</v>
+      </c>
+      <c r="E81" s="3">
         <v>3200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-9500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-69000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-13100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-39100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>72300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>13600</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>2900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>6000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-29800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-144300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-292500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-11400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1000</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4819,70 +5017,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E83" s="3">
         <v>13400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>12600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>13800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>14200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>16500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>19200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>17700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>18400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>19400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>20300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>22100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>24100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>26100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>118700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>30000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>30400</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4943,8 +5145,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5005,8 +5210,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5067,8 +5275,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5129,8 +5340,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5191,70 +5405,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E89" s="3">
         <v>22500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>11600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>19800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>5000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>15200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>23400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>29900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>30100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>11500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>21400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>22600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>26300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>96200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>20800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>37300</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5277,70 +5497,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-6900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-6200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-14700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-15800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-23500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-25900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-23400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-21400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-13300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-21100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-5800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4800</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5401,8 +5625,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5463,70 +5690,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>53300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>40100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>74400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>13700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>140700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>23000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>89400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>137900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>93700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>123400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>131400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>107300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-9600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-5700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-4800</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5549,17 +5782,18 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
         <v>-4400</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
@@ -5567,23 +5801,23 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-11000</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-6700</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
@@ -5611,8 +5845,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5673,8 +5910,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5735,8 +5975,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5797,70 +6040,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-88500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-55600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-134700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-30800</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-165600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-33600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-100700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-125300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-107300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-165700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-117300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-89900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>48100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-89300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-28600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-22800</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5921,66 +6170,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-36500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-83000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>63500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>18700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-9700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>12800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>18600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>42700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-21000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>36800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>43600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>43400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-13500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>9600</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RVI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RVI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="92">
   <si>
     <t>RVI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,294 +665,307 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>41900</v>
+        <v>14600</v>
       </c>
       <c r="E8" s="3">
+        <v>35600</v>
+      </c>
+      <c r="F8" s="3">
         <v>41500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>40100</v>
       </c>
-      <c r="G8" s="3">
-        <v>40000</v>
-      </c>
       <c r="H8" s="3">
-        <v>39300</v>
+        <v>19400</v>
       </c>
       <c r="I8" s="3">
+        <v>44000</v>
+      </c>
+      <c r="J8" s="3">
         <v>50400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>55700</v>
-      </c>
-      <c r="K8" s="3">
-        <v>60900</v>
       </c>
       <c r="L8" s="3">
         <v>60900</v>
       </c>
       <c r="M8" s="3">
+        <v>60900</v>
+      </c>
+      <c r="N8" s="3">
         <v>61600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>67700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>69700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>79000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>76300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>322900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>84700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>81200</v>
       </c>
-      <c r="U8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>12900</v>
+        <v>4600</v>
       </c>
       <c r="E9" s="3">
+        <v>10500</v>
+      </c>
+      <c r="F9" s="3">
         <v>13900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>14800</v>
       </c>
-      <c r="G9" s="3">
-        <v>14900</v>
-      </c>
       <c r="H9" s="3">
-        <v>15100</v>
+        <v>6500</v>
       </c>
       <c r="I9" s="3">
+        <v>15300</v>
+      </c>
+      <c r="J9" s="3">
         <v>16800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>16900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>16600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>17500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>17900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>19800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>19400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>22200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>21900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>89400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>22300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>22100</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>29000</v>
+        <v>10000</v>
       </c>
       <c r="E10" s="3">
+        <v>25100</v>
+      </c>
+      <c r="F10" s="3">
         <v>27600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>25300</v>
       </c>
-      <c r="G10" s="3">
-        <v>25100</v>
-      </c>
       <c r="H10" s="3">
-        <v>24200</v>
+        <v>12900</v>
       </c>
       <c r="I10" s="3">
+        <v>28700</v>
+      </c>
+      <c r="J10" s="3">
         <v>33600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>38800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>44300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>43400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>43700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>47900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>50300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>56800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>54400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>233500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>62400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>59100</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -976,8 +989,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1041,8 +1055,11 @@
       <c r="W12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1106,64 +1123,67 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>80200</v>
+        <v>6700</v>
       </c>
       <c r="E14" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F14" s="3">
         <v>2100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>12400</v>
       </c>
-      <c r="G14" s="3">
-        <v>78200</v>
-      </c>
       <c r="H14" s="3">
-        <v>10900</v>
+        <v>17100</v>
       </c>
       <c r="I14" s="3">
+        <v>30800</v>
+      </c>
+      <c r="J14" s="3">
         <v>19900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>43900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-50800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>6200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>20800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>5900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>7500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>45500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>146500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>273000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>6100</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>3</v>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>3</v>
@@ -1171,73 +1191,79 @@
       <c r="W14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>11200</v>
+        <v>4400</v>
       </c>
       <c r="E15" s="3">
+        <v>11700</v>
+      </c>
+      <c r="F15" s="3">
         <v>13400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>12600</v>
       </c>
-      <c r="G15" s="3">
-        <v>13800</v>
-      </c>
       <c r="H15" s="3">
-        <v>14200</v>
+        <v>6500</v>
       </c>
       <c r="I15" s="3">
+        <v>16200</v>
+      </c>
+      <c r="J15" s="3">
         <v>16500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>19200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>17700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>18400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>19400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>20300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>22100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>24100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>26100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>118700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>30000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>30400</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1258,138 +1284,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>109600</v>
+        <v>18000</v>
       </c>
       <c r="E17" s="3">
+        <v>28500</v>
+      </c>
+      <c r="F17" s="3">
         <v>34300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>45000</v>
       </c>
-      <c r="G17" s="3">
-        <v>112200</v>
-      </c>
       <c r="H17" s="3">
-        <v>46100</v>
+        <v>32800</v>
       </c>
       <c r="I17" s="3">
+        <v>69200</v>
+      </c>
+      <c r="J17" s="3">
         <v>59100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>86100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>-10200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>49000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>64800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>53700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>56600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>99700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>201000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>512200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>64800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>60400</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-67700</v>
+        <v>-3400</v>
       </c>
       <c r="E18" s="3">
+        <v>7100</v>
+      </c>
+      <c r="F18" s="3">
         <v>7200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-4900</v>
       </c>
-      <c r="G18" s="3">
-        <v>-72200</v>
-      </c>
       <c r="H18" s="3">
-        <v>-6800</v>
+        <v>-13400</v>
       </c>
       <c r="I18" s="3">
+        <v>-25200</v>
+      </c>
+      <c r="J18" s="3">
         <v>-8700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-30400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>71100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>11900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>14000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>13100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-20700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-124700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-189300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>19900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>20800</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1413,64 +1446,65 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1600</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>700</v>
       </c>
-      <c r="G20" s="3">
-        <v>8400</v>
-      </c>
       <c r="H20" s="3">
-        <v>11000</v>
+        <v>8300</v>
       </c>
       <c r="I20" s="3">
+        <v>13600</v>
+      </c>
+      <c r="J20" s="3">
         <v>3000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>10400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>12900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>17400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-3000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>400</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-2000</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>3</v>
+      <c r="U20" s="3">
+        <v>0</v>
       </c>
       <c r="V20" s="3" t="s">
         <v>3</v>
@@ -1478,203 +1512,215 @@
       <c r="W20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-54900</v>
+        <v>4700</v>
       </c>
       <c r="E21" s="3">
+        <v>33500</v>
+      </c>
+      <c r="F21" s="3">
         <v>20700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>8400</v>
       </c>
-      <c r="G21" s="3">
-        <v>-49900</v>
-      </c>
       <c r="H21" s="3">
-        <v>18400</v>
+        <v>8700</v>
       </c>
       <c r="I21" s="3">
+        <v>19200</v>
+      </c>
+      <c r="J21" s="3">
         <v>10800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-11400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>99300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>43200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>33500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>31300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>35600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-98700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-72500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>49900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>51200</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3400</v>
+        <v>2000</v>
       </c>
       <c r="E22" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F22" s="3">
         <v>4000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>4600</v>
       </c>
-      <c r="G22" s="3">
-        <v>5200</v>
-      </c>
       <c r="H22" s="3">
-        <v>5700</v>
+        <v>4100</v>
       </c>
       <c r="I22" s="3">
+        <v>10700</v>
+      </c>
+      <c r="J22" s="3">
         <v>7300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>8500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>9400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>10800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>14000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>15200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>17100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>18100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>19400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>90300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>22500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>21600</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-69500</v>
+        <v>-5400</v>
       </c>
       <c r="E23" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F23" s="3">
         <v>3300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-8800</v>
       </c>
-      <c r="G23" s="3">
-        <v>-68900</v>
-      </c>
       <c r="H23" s="3">
-        <v>-1500</v>
+        <v>-9200</v>
       </c>
       <c r="I23" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="J23" s="3">
         <v>-13000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-39000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>72200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>13900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-38900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-144200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-281500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-800</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1685,13 +1731,13 @@
         <v>100</v>
       </c>
       <c r="F24" s="3">
+        <v>100</v>
+      </c>
+      <c r="G24" s="3">
         <v>700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>100</v>
-      </c>
-      <c r="H24" s="3">
-        <v>500</v>
       </c>
       <c r="I24" s="3">
         <v>100</v>
@@ -1700,46 +1746,49 @@
         <v>100</v>
       </c>
       <c r="K24" s="3">
+        <v>100</v>
+      </c>
+      <c r="L24" s="3">
         <v>-100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>4100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>11300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>8900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>100</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1803,138 +1852,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-69600</v>
+        <v>-5500</v>
       </c>
       <c r="E26" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F26" s="3">
         <v>3200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-9500</v>
       </c>
-      <c r="G26" s="3">
-        <v>-69000</v>
-      </c>
       <c r="H26" s="3">
-        <v>-2000</v>
+        <v>-9300</v>
       </c>
       <c r="I26" s="3">
+        <v>-22300</v>
+      </c>
+      <c r="J26" s="3">
         <v>-13100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-39100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>72300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>13600</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-4100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-42900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-144300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-292800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-11500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1000</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-69600</v>
+        <v>-5500</v>
       </c>
       <c r="E27" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F27" s="3">
         <v>3200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-9500</v>
       </c>
-      <c r="G27" s="3">
-        <v>-69000</v>
-      </c>
       <c r="H27" s="3">
-        <v>-2000</v>
+        <v>-9300</v>
       </c>
       <c r="I27" s="3">
+        <v>-22300</v>
+      </c>
+      <c r="J27" s="3">
         <v>-13100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-39100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>72300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>13600</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>2900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>6000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-29800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-144300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-292500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-11400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1000</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1998,31 +2056,34 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>26500</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
+        <v>-69300</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
+        <v>-59700</v>
       </c>
       <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>7300</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -2054,8 +2115,8 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>3</v>
+      <c r="U29" s="3">
+        <v>0</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>3</v>
@@ -2063,8 +2124,11 @@
       <c r="W29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2128,8 +2192,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2193,64 +2260,67 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1600</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-700</v>
       </c>
-      <c r="G32" s="3">
-        <v>-8400</v>
-      </c>
       <c r="H32" s="3">
-        <v>-11000</v>
+        <v>-8300</v>
       </c>
       <c r="I32" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="J32" s="3">
         <v>-3000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-10400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-12900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-17400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>3000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-400</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>2000</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>3</v>
+      <c r="U32" s="3">
+        <v>0</v>
       </c>
       <c r="V32" s="3" t="s">
         <v>3</v>
@@ -2258,73 +2328,79 @@
       <c r="W32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-69600</v>
+        <v>21000</v>
       </c>
       <c r="E33" s="3">
+        <v>-66400</v>
+      </c>
+      <c r="F33" s="3">
         <v>3200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-9500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-69000</v>
       </c>
-      <c r="H33" s="3">
-        <v>-2000</v>
-      </c>
       <c r="I33" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="J33" s="3">
         <v>-13100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-39100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>72300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>13600</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>2900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>6000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-29800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-144300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-292500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-11400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1000</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2388,143 +2464,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-69600</v>
+        <v>21000</v>
       </c>
       <c r="E35" s="3">
+        <v>-66400</v>
+      </c>
+      <c r="F35" s="3">
         <v>3200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-9500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-69000</v>
       </c>
-      <c r="H35" s="3">
-        <v>-2000</v>
-      </c>
       <c r="I35" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="J35" s="3">
         <v>-13100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-39100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>72300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>13600</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>2900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>6000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-29800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-144300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-292500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-11400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1000</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="W38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2548,8 +2633,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2573,56 +2659,57 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>460900</v>
+      </c>
+      <c r="E41" s="3">
         <v>67200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>72700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>56800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>115300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>99200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>92400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>71000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>71300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>58500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>37600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>44600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>28600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>22100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4300</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2638,8 +2725,11 @@
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2703,56 +2793,59 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E43" s="3">
         <v>20500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>25100</v>
       </c>
-      <c r="F43" s="3">
-        <v>28300</v>
-      </c>
       <c r="G43" s="3">
+        <v>18000</v>
+      </c>
+      <c r="H43" s="3">
         <v>30500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>31900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>21400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>25200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>24200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>25400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>44500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>60800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>79900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>83000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>98200</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2768,8 +2861,11 @@
       <c r="W43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2833,8 +2929,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2898,8 +2997,11 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2963,8 +3065,11 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2983,8 +3088,8 @@
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I47" s="3">
-        <v>100</v>
+      <c r="I47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J47" s="3">
         <v>100</v>
@@ -2992,8 +3097,8 @@
       <c r="K47" s="3">
         <v>100</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
+      <c r="L47" s="3">
+        <v>100</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
@@ -3010,8 +3115,8 @@
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
+      <c r="R47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
@@ -3028,56 +3133,59 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>68400</v>
+      </c>
+      <c r="E48" s="3">
         <v>820200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>960200</v>
       </c>
-      <c r="F48" s="3">
-        <v>973300</v>
-      </c>
       <c r="G48" s="3">
+        <v>345200</v>
+      </c>
+      <c r="H48" s="3">
         <v>1036000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1194300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1220400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1389000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1464600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1526700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1658000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1747000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1867900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1999900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2102200</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3093,56 +3201,59 @@
       <c r="W48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E49" s="3">
         <v>5700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>7100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>7900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>8500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>12500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>13400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>17900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>19100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>20400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>22500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>31900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>40800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>54500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>62400</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3158,8 +3269,11 @@
       <c r="W49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3223,8 +3337,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3288,56 +3405,59 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>242200</v>
+      </c>
+      <c r="E52" s="3">
         <v>66600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>74900</v>
       </c>
-      <c r="F52" s="3">
-        <v>129300</v>
-      </c>
       <c r="G52" s="3">
+        <v>767700</v>
+      </c>
+      <c r="H52" s="3">
         <v>148400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>101000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>92800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>123300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>106500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>98700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>80300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>76600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>110600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>76800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>61800</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3353,8 +3473,11 @@
       <c r="W52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3418,56 +3541,59 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>786000</v>
+      </c>
+      <c r="E54" s="3">
         <v>980500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1140300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1195900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1338900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1439300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1440700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1626700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1686100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1729900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1843100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1962600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2133300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2241600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2334000</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3483,8 +3609,11 @@
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3508,8 +3637,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3533,56 +3663,57 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E57" s="3">
         <v>30400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>34200</v>
       </c>
-      <c r="F57" s="3">
-        <v>36000</v>
-      </c>
       <c r="G57" s="3">
+        <v>51800</v>
+      </c>
+      <c r="H57" s="3">
         <v>38700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>41300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>41800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>51000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>55500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>57200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>62300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>84800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>94700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>120400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>97100</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3598,8 +3729,11 @@
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3663,8 +3797,11 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3675,38 +3812,38 @@
         <v>0</v>
       </c>
       <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
         <v>25600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>42000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>19600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>36700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>37100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>58000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>36500</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3719,8 +3856,8 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U59" s="3">
-        <v>0</v>
+      <c r="U59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V59" s="3">
         <v>0</v>
@@ -3728,8 +3865,11 @@
       <c r="W59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3793,56 +3933,59 @@
       <c r="W60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>207200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>294100</v>
       </c>
-      <c r="F61" s="3">
-        <v>344500</v>
-      </c>
       <c r="G61" s="3">
+        <v>258800</v>
+      </c>
+      <c r="H61" s="3">
         <v>477100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>506700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>505800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>655800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>654700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>752400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>873700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>967600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1128800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1241800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1317700</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -3858,31 +4001,34 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
+        <v>4700</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>98400</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -3923,8 +4069,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3988,8 +4137,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4053,8 +4205,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4118,56 +4273,59 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>22100</v>
+      </c>
+      <c r="E66" s="3">
         <v>237700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>328300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>406100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>516500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>548300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>547700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>748800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>729800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>846300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>973000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1110400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1259900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1362300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1414900</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4183,8 +4341,11 @@
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4208,8 +4369,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4273,8 +4435,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4338,8 +4503,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4383,7 +4551,7 @@
         <v>190000</v>
       </c>
       <c r="Q70" s="3">
-        <v>0</v>
+        <v>190000</v>
       </c>
       <c r="R70" s="3">
         <v>0</v>
@@ -4403,8 +4571,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4468,56 +4639,59 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-168800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-189800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-120200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-123400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-90900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-21900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-19900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-6900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>71400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-14500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-15200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>6000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>689300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>919100</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4533,8 +4707,11 @@
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4598,8 +4775,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4663,8 +4843,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4728,56 +4911,59 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>573800</v>
+      </c>
+      <c r="E76" s="3">
         <v>552800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>622000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>599800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>632400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>700900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>702900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>687900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>766200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>693700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>680200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>662300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>683400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>689300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>919100</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4793,8 +4979,11 @@
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4858,143 +5047,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="W80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-69600</v>
+        <v>21000</v>
       </c>
       <c r="E81" s="3">
+        <v>-66400</v>
+      </c>
+      <c r="F81" s="3">
         <v>3200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-9500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-69000</v>
       </c>
-      <c r="H81" s="3">
-        <v>-2000</v>
-      </c>
       <c r="I81" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="J81" s="3">
         <v>-13100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-39100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>72300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>13600</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>2900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>6000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-29800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-144300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-292500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-11400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1000</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5018,73 +5216,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>11200</v>
+        <v>8100</v>
       </c>
       <c r="E83" s="3">
+        <v>24600</v>
+      </c>
+      <c r="F83" s="3">
         <v>13400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>12600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>13800</v>
       </c>
-      <c r="H83" s="3">
-        <v>14200</v>
-      </c>
       <c r="I83" s="3">
+        <v>30700</v>
+      </c>
+      <c r="J83" s="3">
         <v>16500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>19200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>17700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>18400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>19400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>20300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>22100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>24100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>26100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>118700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>30000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>30400</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5148,8 +5350,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5213,8 +5418,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5278,8 +5486,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5343,8 +5554,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5408,73 +5622,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>25200</v>
+        <v>12900</v>
       </c>
       <c r="E89" s="3">
+        <v>47600</v>
+      </c>
+      <c r="F89" s="3">
         <v>22500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>11600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>19800</v>
       </c>
-      <c r="H89" s="3">
-        <v>5000</v>
-      </c>
       <c r="I89" s="3">
+        <v>20200</v>
+      </c>
+      <c r="J89" s="3">
         <v>15200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>23400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>29900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>30100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>11500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>21400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>22600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>26300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>96200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>20800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>37300</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5498,73 +5718,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2700</v>
+        <v>-3800</v>
       </c>
       <c r="E91" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-3400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4600</v>
       </c>
-      <c r="H91" s="3">
-        <v>-6900</v>
-      </c>
       <c r="I91" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="J91" s="3">
         <v>-6200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-14700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-15800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-23500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-25900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-23400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-21400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-13300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-7200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-21100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-5800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-4800</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5628,8 +5852,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5693,73 +5920,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>53300</v>
+        <v>536300</v>
       </c>
       <c r="E94" s="3">
+        <v>49900</v>
+      </c>
+      <c r="F94" s="3">
         <v>-3300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>40100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>74400</v>
       </c>
-      <c r="H94" s="3">
-        <v>13700</v>
-      </c>
       <c r="I94" s="3">
+        <v>154400</v>
+      </c>
+      <c r="J94" s="3">
         <v>140700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>23000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>89400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>137900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>93700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>123400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>131400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>107300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-7200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-9600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-5700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-4800</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5783,8 +6016,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5795,7 +6029,7 @@
         <v>-4400</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-4400</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -5807,20 +6041,20 @@
         <v>-11000</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-11000</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-6700</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -5848,8 +6082,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5913,8 +6150,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5978,8 +6218,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6043,73 +6286,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-88500</v>
+        <v>-214500</v>
       </c>
       <c r="E100" s="3">
+        <v>-144100</v>
+      </c>
+      <c r="F100" s="3">
         <v>-55600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-134700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-30800</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
       </c>
       <c r="I100" s="3">
         <v>-165600</v>
       </c>
       <c r="J100" s="3">
+        <v>-165600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-33600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-100700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-125300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-107300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-165700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-117300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-89900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>48100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-89300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-28600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-22800</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6173,69 +6422,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-10100</v>
+        <v>334700</v>
       </c>
       <c r="E102" s="3">
+        <v>-46600</v>
+      </c>
+      <c r="F102" s="3">
         <v>-36500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-83000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>63500</v>
       </c>
-      <c r="H102" s="3">
-        <v>18700</v>
-      </c>
       <c r="I102" s="3">
+        <v>9100</v>
+      </c>
+      <c r="J102" s="3">
         <v>-9700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>12800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>18600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>42700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-21000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>36800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>43600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>43400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-13500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>9600</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RVI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RVI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="92">
   <si>
     <t>RVI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,307 +665,319 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="X7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E8" s="3">
         <v>14600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>35600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>41500</v>
       </c>
-      <c r="G8" s="3">
-        <v>40100</v>
-      </c>
       <c r="H8" s="3">
+        <v>17300</v>
+      </c>
+      <c r="I8" s="3">
         <v>19400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>44000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>50400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>55700</v>
-      </c>
-      <c r="L8" s="3">
-        <v>60900</v>
       </c>
       <c r="M8" s="3">
         <v>60900</v>
       </c>
       <c r="N8" s="3">
+        <v>60900</v>
+      </c>
+      <c r="O8" s="3">
         <v>61600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>67700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>69700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>79000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>76300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>322900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>84700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>81200</v>
       </c>
-      <c r="V8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E9" s="3">
         <v>4600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>10500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>13900</v>
       </c>
-      <c r="G9" s="3">
-        <v>14800</v>
-      </c>
       <c r="H9" s="3">
+        <v>5600</v>
+      </c>
+      <c r="I9" s="3">
         <v>6500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>15300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>16800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>16900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>16600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>17500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>17900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>19800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>19400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>22200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>21900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>89400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>22300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>22100</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E10" s="3">
         <v>10000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>25100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>27600</v>
       </c>
-      <c r="G10" s="3">
-        <v>25300</v>
-      </c>
       <c r="H10" s="3">
+        <v>11700</v>
+      </c>
+      <c r="I10" s="3">
         <v>12900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>28700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>33600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>38800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>44300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>43400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>43700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>47900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>50300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>56800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>54400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>233500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>62400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>59100</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -990,8 +1002,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1058,8 +1071,11 @@
       <c r="X12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1126,67 +1142,70 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>6700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>12400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>17100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>30800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>19900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>43900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-50800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>6200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>20800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>5900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>7500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>45500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>146500</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>273000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>6100</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>3</v>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>3</v>
@@ -1194,76 +1213,82 @@
       <c r="X14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E15" s="3">
         <v>4400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>11700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>13400</v>
       </c>
-      <c r="G15" s="3">
-        <v>12600</v>
-      </c>
       <c r="H15" s="3">
+        <v>18200</v>
+      </c>
+      <c r="I15" s="3">
         <v>6500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>16200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>16500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>19200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>17700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>18400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>19400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>20300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>22100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>24100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>26100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>118700</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>30000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>30400</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1285,144 +1310,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E17" s="3">
         <v>18000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>28500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>34300</v>
       </c>
-      <c r="G17" s="3">
-        <v>45000</v>
-      </c>
       <c r="H17" s="3">
+        <v>26200</v>
+      </c>
+      <c r="I17" s="3">
         <v>32800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>69200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>59100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>86100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>-10200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>49000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>64800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>53700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>56600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>99700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>201000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>512200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>64800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>60400</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>7100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>7200</v>
       </c>
-      <c r="G18" s="3">
-        <v>-4900</v>
-      </c>
       <c r="H18" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="I18" s="3">
         <v>-13400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-25200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-8700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-30400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>71100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>11900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>14000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>13100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-20700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-124700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-189300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>19900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>20800</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1447,67 +1479,68 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>27700</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>700</v>
-      </c>
       <c r="H20" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I20" s="3">
         <v>8300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>13600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>10400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>12900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>17400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-3000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>400</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-2000</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>3</v>
+      <c r="V20" s="3">
+        <v>0</v>
       </c>
       <c r="W20" s="3" t="s">
         <v>3</v>
@@ -1515,217 +1548,229 @@
       <c r="X20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>29900</v>
+      </c>
+      <c r="E21" s="3">
         <v>4700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>33500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>20700</v>
       </c>
-      <c r="G21" s="3">
-        <v>8400</v>
-      </c>
       <c r="H21" s="3">
+        <v>5400</v>
+      </c>
+      <c r="I21" s="3">
         <v>8700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>19200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>10800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-11400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>99300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>43200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>33500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>31300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>35600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-98700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-72500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>49900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>51200</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
         <v>2000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>5900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>4000</v>
       </c>
-      <c r="G22" s="3">
-        <v>4600</v>
-      </c>
       <c r="H22" s="3">
+        <v>3500</v>
+      </c>
+      <c r="I22" s="3">
         <v>4100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>10700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>7300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>8500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>9400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>10800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>14000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>15200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>17100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>18100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>19400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>90300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>22500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>21600</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>28800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3300</v>
       </c>
-      <c r="G23" s="3">
-        <v>-8800</v>
-      </c>
       <c r="H23" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="I23" s="3">
         <v>-9200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-22200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-13000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-39000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>72200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>13900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-38900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-144200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-281500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-800</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
         <v>100</v>
@@ -1734,10 +1779,10 @@
         <v>100</v>
       </c>
       <c r="G24" s="3">
+        <v>100</v>
+      </c>
+      <c r="H24" s="3">
         <v>700</v>
-      </c>
-      <c r="H24" s="3">
-        <v>100</v>
       </c>
       <c r="I24" s="3">
         <v>100</v>
@@ -1749,46 +1794,49 @@
         <v>100</v>
       </c>
       <c r="L24" s="3">
+        <v>100</v>
+      </c>
+      <c r="M24" s="3">
         <v>-100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>4100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>11300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>8900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>100</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1855,144 +1903,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>28900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3200</v>
       </c>
-      <c r="G26" s="3">
-        <v>-9500</v>
-      </c>
       <c r="H26" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="I26" s="3">
         <v>-9300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-22300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-13100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-39100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>72300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>13600</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>-4100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-42900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-144300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-292800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-11500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1000</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>28900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3200</v>
       </c>
-      <c r="G27" s="3">
-        <v>-9500</v>
-      </c>
       <c r="H27" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="I27" s="3">
         <v>-9300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-22300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-13100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-39100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>72300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>13600</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>2900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>6000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-29800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-144300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-292500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-11400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1000</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2059,34 +2116,37 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E29" s="3">
         <v>26500</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-69300</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G29" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H29" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I29" s="3">
         <v>-59700</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>7300</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -2118,8 +2178,8 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>3</v>
+      <c r="V29" s="3">
+        <v>0</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>3</v>
@@ -2127,8 +2187,11 @@
       <c r="X29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2195,8 +2258,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2263,67 +2329,70 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>-700</v>
-      </c>
       <c r="H32" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="I32" s="3">
         <v>-8300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-13600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-10400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-12900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-17400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>3000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-400</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>2000</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>3</v>
+      <c r="V32" s="3">
+        <v>0</v>
       </c>
       <c r="W32" s="3" t="s">
         <v>3</v>
@@ -2331,76 +2400,82 @@
       <c r="X32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>27700</v>
+      </c>
+      <c r="E33" s="3">
         <v>21000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-66400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-9500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-69000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-15100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-13100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-39100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>72300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>13600</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>2900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>6000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-29800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-144300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-292500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-11400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1000</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2467,149 +2542,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>27700</v>
+      </c>
+      <c r="E35" s="3">
         <v>21000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-66400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-9500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-69000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-15100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-13100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-39100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>72300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>13600</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>2900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>6000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-29800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-144300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-292500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-11400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1000</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="X38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2634,8 +2718,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2660,59 +2745,60 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>110500</v>
+      </c>
+      <c r="E41" s="3">
         <v>460900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>67200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>72700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>56800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>115300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>99200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>92400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>71000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>71300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>58500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>37600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>44600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>28600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>22100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4300</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2728,8 +2814,11 @@
       <c r="X41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2796,59 +2885,62 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E43" s="3">
         <v>11000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>20500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>25100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>18000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>30500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>31900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>21400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>25200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>24200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>25400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>44500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>60800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>79900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>83000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>98200</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2864,8 +2956,11 @@
       <c r="X43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2932,8 +3027,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3000,8 +3098,11 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3068,8 +3169,11 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3091,8 +3195,8 @@
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J47" s="3">
-        <v>100</v>
+      <c r="J47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K47" s="3">
         <v>100</v>
@@ -3100,8 +3204,8 @@
       <c r="L47" s="3">
         <v>100</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
+      <c r="M47" s="3">
+        <v>100</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
@@ -3118,8 +3222,8 @@
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S47" s="3">
-        <v>0</v>
+      <c r="S47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T47" s="3">
         <v>0</v>
@@ -3136,59 +3240,62 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>24400</v>
+      </c>
+      <c r="E48" s="3">
         <v>68400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>820200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>960200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>345200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1036000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1194300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1220400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1389000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1464600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1526700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1658000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1747000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1867900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1999900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2102200</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3204,59 +3311,62 @@
       <c r="X48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
         <v>3300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>5700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>7100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>7900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>8500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>12500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>13400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>17900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>19100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>20400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>22500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>31900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>40800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>54500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>62400</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3272,8 +3382,11 @@
       <c r="X49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3340,8 +3453,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3408,59 +3524,62 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E52" s="3">
         <v>242200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>66600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>74900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>767700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>148400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>101000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>92800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>123300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>106500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>98700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>80300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>76600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>110600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>76800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>61800</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3476,8 +3595,11 @@
       <c r="X52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3544,59 +3666,62 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>144400</v>
+      </c>
+      <c r="E54" s="3">
         <v>786000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>980500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1140300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1195900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1338900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1439300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1440700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1626700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1686100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1729900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1843100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1962600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2133300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2241600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2334000</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3612,8 +3737,11 @@
       <c r="X54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3638,8 +3766,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3664,59 +3793,60 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E57" s="3">
         <v>10600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>30400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>34200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>51800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>38700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>41300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>41800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>51000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>55500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>57200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>62300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>84800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>94700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>120400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>97100</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3732,8 +3862,11 @@
       <c r="X57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3800,13 +3933,16 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>71200</v>
       </c>
       <c r="E59" s="3">
         <v>0</v>
@@ -3815,38 +3951,38 @@
         <v>0</v>
       </c>
       <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
         <v>25600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>42000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>19600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>36700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>37100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>58000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>36500</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3859,8 +3995,8 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V59" s="3">
-        <v>0</v>
+      <c r="V59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W59" s="3">
         <v>0</v>
@@ -3868,8 +4004,11 @@
       <c r="X59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3936,8 +4075,11 @@
       <c r="X60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3945,50 +4087,50 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>207200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>294100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>258800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>477100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>506700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>505800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>655800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>654700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>752400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>873700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>967600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1128800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1241800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1317700</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
@@ -4004,34 +4146,37 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
         <v>4700</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G62" s="3">
+      <c r="G62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" s="3">
         <v>98400</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -4072,8 +4217,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4140,8 +4288,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4208,8 +4359,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4276,59 +4430,62 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>77400</v>
+      </c>
+      <c r="E66" s="3">
         <v>22100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>237700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>328300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>406100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>516500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>548300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>547700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>748800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>729800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>846300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>973000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1110400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1259900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1362300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1414900</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4344,8 +4501,11 @@
       <c r="X66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4370,8 +4530,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4438,8 +4599,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4506,13 +4670,16 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>190000</v>
+        <v>0</v>
       </c>
       <c r="E70" s="3">
         <v>190000</v>
@@ -4554,7 +4721,7 @@
         <v>190000</v>
       </c>
       <c r="R70" s="3">
-        <v>0</v>
+        <v>190000</v>
       </c>
       <c r="S70" s="3">
         <v>0</v>
@@ -4574,8 +4741,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4642,59 +4812,62 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-675600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-168800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-189800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-120200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-123400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-90900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-21900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-19900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-6900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>71400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-14500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-15200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>6000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>689300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>919100</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4710,8 +4883,11 @@
       <c r="X72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4778,8 +4954,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4846,8 +5025,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4914,59 +5096,62 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E76" s="3">
         <v>573800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>552800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>622000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>599800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>632400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>700900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>702900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>687900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>766200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>693700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>680200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>662300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>683400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>689300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>919100</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4982,8 +5167,11 @@
       <c r="X76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5050,149 +5238,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="X80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>27700</v>
+      </c>
+      <c r="E81" s="3">
         <v>21000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-66400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-9500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-69000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-15100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-13100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-39100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>72300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>13600</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>2900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>6000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-29800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-144300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-292500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-11400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1000</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5217,76 +5414,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E83" s="3">
         <v>8100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>24600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>13400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>12600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>13800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>30700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>16500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>19200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>17700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>18400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>19400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>20300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>22100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>24100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>26100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>118700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>30000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>30400</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5353,8 +5554,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5421,8 +5625,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5489,8 +5696,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5557,8 +5767,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5625,76 +5838,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E89" s="3">
         <v>12900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>47600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>22500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>11600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>19800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>20200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>15200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>23400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>29900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>30100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>11500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>21400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>22600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>26300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>96200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>20800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>37300</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5719,76 +5938,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-6100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-13100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-6200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-14700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-15800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-23500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-25900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-23400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-21400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-13300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-7200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-21100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-5800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-4800</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5855,8 +6078,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5923,76 +6149,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>305800</v>
+      </c>
+      <c r="E94" s="3">
         <v>536300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>49900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>40100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>74400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>154400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>140700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>23000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>89400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>137900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>93700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>123400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>131400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>107300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-7200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-9600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-5700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-4800</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6017,47 +6249,48 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-465400</v>
       </c>
       <c r="E96" s="3">
-        <v>-4400</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
         <v>-4400</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-4400</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-11000</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
         <v>-11000</v>
       </c>
       <c r="K96" s="3">
-        <v>0</v>
+        <v>-11000</v>
       </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-6700</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
@@ -6085,8 +6318,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6153,8 +6389,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6221,8 +6460,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6289,76 +6531,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-655400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-214500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-144100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-55600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-134700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-30800</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-165600</v>
       </c>
       <c r="J100" s="3">
         <v>-165600</v>
       </c>
       <c r="K100" s="3">
+        <v>-165600</v>
+      </c>
+      <c r="L100" s="3">
         <v>-33600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-100700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-125300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-107300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-165700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-117300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-89900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>48100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-89300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-28600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-22800</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6425,72 +6673,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-348500</v>
+      </c>
+      <c r="E102" s="3">
         <v>334700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-46600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-36500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-83000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>63500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>9100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-9700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>12800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>18600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>42700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-21000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>36800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>43600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>43400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-13500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>9600</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
